--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-G_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,9 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6029,9 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6041,9 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6053,9 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="label-wrapper"&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;/div&gt;</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6066,7 @@
       <c r="B570" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6070,7 +6078,7 @@
       <c r="B571" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6082,7 +6090,7 @@
       <c r="B572" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6094,7 +6102,7 @@
       <c r="B573" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6106,7 +6114,7 @@
       <c r="B574" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6118,7 +6126,7 @@
       <c r="B575" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6130,7 +6138,7 @@
       <c r="B576" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6142,7 +6150,7 @@
       <c r="B577" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6166,7 +6174,7 @@
       <c r="B579" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_min7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6202,7 +6210,7 @@
       <c r="B582" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6238,7 +6246,7 @@
       <c r="B585" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6250,7 +6258,7 @@
       <c r="B586" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6262,7 +6270,7 @@
       <c r="B587" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6274,7 +6282,7 @@
       <c r="B588" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6286,7 +6294,7 @@
       <c r="B589" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6298,7 +6306,7 @@
       <c r="B590" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6322,7 +6330,7 @@
       <c r="B592" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6346,7 +6354,7 @@
       <c r="B594" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6358,7 +6366,7 @@
       <c r="B595" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6370,7 +6378,7 @@
       <c r="B596" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6382,7 +6390,7 @@
       <c r="B597" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6394,7 +6402,7 @@
       <c r="B598" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6406,7 +6414,7 @@
       <c r="B599" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6418,7 +6426,7 @@
       <c r="B600" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6430,7 +6438,7 @@
       <c r="B601" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6442,7 +6450,7 @@
       <c r="B602" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6454,7 +6462,7 @@
       <c r="B603" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-B_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6466,7 +6474,7 @@
       <c r="B604" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6478,7 +6486,7 @@
       <c r="B605" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6490,7 +6498,7 @@
       <c r="B606" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6502,7 +6510,7 @@
       <c r="B607" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6514,7 +6522,7 @@
       <c r="B608" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6526,7 +6534,7 @@
       <c r="B609" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6538,7 +6546,7 @@
       <c r="B610" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6550,7 +6558,7 @@
       <c r="B611" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6562,7 +6570,7 @@
       <c r="B612" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6574,7 +6582,7 @@
       <c r="B613" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6586,7 +6594,7 @@
       <c r="B614" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6598,7 +6606,7 @@
       <c r="B615" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6610,7 +6618,7 @@
       <c r="B616" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6622,7 +6630,7 @@
       <c r="B617" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6634,7 +6642,7 @@
       <c r="B618" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6646,7 +6654,7 @@
       <c r="B619" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6658,7 +6666,7 @@
       <c r="B620" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6670,7 +6678,7 @@
       <c r="B621" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6682,7 +6690,7 @@
       <c r="B622" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6694,7 +6702,7 @@
       <c r="B623" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6706,7 +6714,7 @@
       <c r="B624" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6718,7 +6726,7 @@
       <c r="B625" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6730,7 +6738,7 @@
       <c r="B626" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6742,7 +6750,7 @@
       <c r="B627" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6754,7 +6762,7 @@
       <c r="B628" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6766,7 +6774,7 @@
       <c r="B629" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6778,7 +6786,7 @@
       <c r="B630" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_7"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6790,7 +6798,7 @@
       <c r="B631" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6802,7 +6810,7 @@
       <c r="B632" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6814,7 +6822,7 @@
       <c r="B633" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min7"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6826,7 +6834,7 @@
       <c r="B634" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6838,7 +6846,7 @@
       <c r="B635" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6850,7 +6858,7 @@
       <c r="B636" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6874,7 +6882,7 @@
       <c r="B638" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6886,7 +6894,7 @@
       <c r="B639" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6898,7 +6906,7 @@
       <c r="B640" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6910,7 +6918,7 @@
       <c r="B641" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6922,7 +6930,7 @@
       <c r="B642" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6934,7 +6942,7 @@
       <c r="B643" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6946,7 +6954,7 @@
       <c r="B644" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6958,7 +6966,7 @@
       <c r="B645" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6970,7 +6978,7 @@
       <c r="B646" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6982,7 +6990,7 @@
       <c r="B647" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -6994,7 +7002,7 @@
       <c r="B648" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7018,7 +7026,7 @@
       <c r="B650" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7042,7 +7050,7 @@
       <c r="B652" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7054,7 +7062,7 @@
       <c r="B653" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7066,7 +7074,7 @@
       <c r="B654" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_min"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7078,7 +7086,7 @@
       <c r="B655" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7090,7 +7098,7 @@
       <c r="B656" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7102,7 +7110,7 @@
       <c r="B657" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7114,7 +7122,7 @@
       <c r="B658" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7126,7 +7134,7 @@
       <c r="B659" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7138,7 +7146,7 @@
       <c r="B660" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7150,7 +7158,7 @@
       <c r="B661" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7162,7 +7170,7 @@
       <c r="B662" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-B_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7174,7 +7182,7 @@
       <c r="B663" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-B_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7186,7 +7194,7 @@
       <c r="B664" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7198,7 +7206,7 @@
       <c r="B665" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7210,7 +7218,7 @@
       <c r="B666" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7222,7 +7230,7 @@
       <c r="B667" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7234,7 +7242,7 @@
       <c r="B668" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7246,7 +7254,7 @@
       <c r="B669" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7342,7 +7350,7 @@
       <c r="B677" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
+&lt;span class="label-E_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7354,7 +7362,7 @@
       <c r="B678" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7366,7 +7374,7 @@
       <c r="B679" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7402,7 +7410,7 @@
       <c r="B682" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-A_7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7438,7 +7446,7 @@
       <c r="B685" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
+&lt;span class="label-Fs_min7"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7486,7 +7494,7 @@
       <c r="B689" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-G_maj"&gt;&lt;/span&gt;
+&lt;span class="label-A_maj"&gt;&lt;/span&gt;
 &lt;/div&gt;</t>
         </is>
       </c>
@@ -7544,30 +7552,6 @@
         <v>692</v>
       </c>
       <c r="B694" t="inlineStr">
-        <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="inlineStr">
         <is>
           <t>&lt;div class="label-wrapper"&gt;
 &lt;span class="label-E_maj"&gt;&lt;/span&gt;

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -407,7 +407,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -417,7 +417,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -427,7 +427,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_min</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_min</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>B_maj</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>B_maj</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>B_maj</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>B_maj</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-B_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>B_7</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_7</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-Fs_min7"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-A_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label label-E_maj"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>E_maj</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;&lt;span class="chord-label icon-rest"&gt;&lt;/span&gt;&lt;span class="bass-label"&gt;&lt;/span&gt;&lt;/div&gt;</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -6017,9 +6017,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6029,9 +6027,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6041,9 +6037,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6053,9 +6047,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6065,9 +6057,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6077,9 +6067,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6089,9 +6077,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6101,9 +6087,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6113,9 +6097,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6125,9 +6107,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6137,9 +6117,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6149,9 +6127,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6161,9 +6137,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6173,9 +6147,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6185,9 +6157,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6197,9 +6167,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6209,9 +6177,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6221,9 +6187,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6233,9 +6197,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6245,9 +6207,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6257,9 +6217,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6269,9 +6227,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6281,9 +6237,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6293,9 +6247,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6305,9 +6257,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6317,9 +6267,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6329,9 +6277,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6341,9 +6287,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6353,9 +6297,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6365,9 +6307,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6377,9 +6317,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6389,9 +6327,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6401,9 +6337,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6413,9 +6347,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6425,9 +6357,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6437,9 +6367,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6449,9 +6377,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6461,9 +6387,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-B_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6473,9 +6397,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6485,9 +6407,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6497,9 +6417,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6509,9 +6427,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6521,9 +6437,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6533,9 +6447,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6545,9 +6457,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6557,9 +6467,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6569,9 +6477,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6581,9 +6487,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6593,9 +6497,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6605,9 +6507,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6617,9 +6517,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6629,9 +6527,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6641,9 +6537,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6653,9 +6547,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6665,9 +6557,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6677,9 +6567,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6689,9 +6577,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6701,9 +6587,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6713,9 +6597,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6725,9 +6607,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6737,9 +6617,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6749,9 +6627,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6761,9 +6637,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6773,9 +6647,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6785,9 +6657,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6797,9 +6667,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6809,9 +6677,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6821,9 +6687,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6833,9 +6697,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6845,9 +6707,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6857,9 +6717,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6869,9 +6727,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6881,9 +6737,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6893,9 +6747,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6905,9 +6757,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6917,9 +6767,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6929,9 +6777,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6941,9 +6787,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6953,9 +6797,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6965,9 +6807,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6977,9 +6817,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -6989,9 +6827,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7001,9 +6837,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7013,9 +6847,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7025,9 +6857,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7037,9 +6867,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7049,9 +6877,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7061,9 +6887,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7073,9 +6897,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7085,9 +6907,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7097,9 +6917,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7109,9 +6927,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7121,9 +6937,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7133,9 +6947,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7145,9 +6957,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7157,9 +6967,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7169,9 +6977,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7181,9 +6987,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-B_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7193,9 +6997,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7205,9 +7007,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7217,9 +7017,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7229,9 +7027,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7241,9 +7037,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7253,9 +7047,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7265,9 +7057,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7277,9 +7067,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7289,9 +7077,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7301,9 +7087,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7313,9 +7097,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7325,9 +7107,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7337,9 +7117,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7349,9 +7127,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7361,9 +7137,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7373,9 +7147,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7385,9 +7157,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7397,9 +7167,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7409,9 +7177,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7421,9 +7187,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7433,9 +7197,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7445,9 +7207,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-Fs_min7"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7457,9 +7217,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7469,9 +7227,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7481,9 +7237,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7493,9 +7247,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7505,9 +7257,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7517,9 +7267,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7529,9 +7277,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7541,9 +7287,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-A_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>
@@ -7553,9 +7297,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>&lt;div class="label-wrapper"&gt;
-&lt;span class="label-E_maj"&gt;&lt;/span&gt;
-&lt;/div&gt;</t>
+          <t xml:space="preserve"> test </t>
         </is>
       </c>
     </row>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -407,7 +407,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A_min</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A_min</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_maj</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_7</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_7</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Gs_7</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A_7</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min7</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>D_maj</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A_maj</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Cs_7</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_maj</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_maj</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_maj</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Cs_maj</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>B_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>Fs_min</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>E_7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>E_maj</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -6017,1287 +6017,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> test </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,8 +367,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Chords</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -4498,1526 +4500,6 @@
       <c r="B414" t="inlineStr">
         <is>
           <t>Fs_min</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fs_maj</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>D_7</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Fs_7</t>
+          <t>F#7</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Gs_7</t>
+          <t>G#7</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Fs_min7</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>D_maj</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>A_7</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>A_maj</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Cs_7</t>
+          <t>C#7</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Cs_maj</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Cs_maj</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Cs_maj</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Cs_maj</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Fs_min</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>F#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>G#7</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>C#7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,4647 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>rest</t>
         </is>
       </c>
     </row>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>D#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>G#m</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -6338,6 +6338,2806 @@
         <v>596</v>
       </c>
       <c r="B598" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
         <is>
           <t>rest</t>
         </is>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="7">
   <si>
     <t>Chords</t>
+  </si>
+  <si>
+    <t>rest</t>
   </si>
   <si>
     <t>Bm</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>F#</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Em</t>
   </si>
   <si>
-    <t>F#7</t>
-  </si>
-  <si>
-    <t>rest</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -445,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -469,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -485,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -493,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -501,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -509,7 +512,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -517,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -525,7 +528,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -533,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -541,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -549,7 +552,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -557,7 +560,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -565,7 +568,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -573,7 +576,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -597,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -605,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -613,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -621,7 +624,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -629,7 +632,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -637,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -645,7 +648,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -653,7 +656,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -661,7 +664,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -669,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -677,7 +680,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -685,7 +688,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -693,7 +696,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -701,7 +704,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -725,7 +728,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -733,7 +736,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -741,7 +744,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -749,7 +752,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -757,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -765,7 +768,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -773,7 +776,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -781,7 +784,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -789,7 +792,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -797,7 +800,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -805,7 +808,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -813,7 +816,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -821,7 +824,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -829,7 +832,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -853,7 +856,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -861,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -869,7 +872,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -877,7 +880,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -885,7 +888,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -893,7 +896,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -901,7 +904,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -909,7 +912,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -917,7 +920,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -925,7 +928,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -933,7 +936,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -941,7 +944,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -949,7 +952,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -957,7 +960,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -981,7 +984,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -989,7 +992,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -997,7 +1000,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1005,7 +1008,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1013,7 +1016,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1021,7 +1024,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1029,7 +1032,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1037,7 +1040,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1045,7 +1048,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1053,7 +1056,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1061,7 +1064,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1069,7 +1072,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1077,7 +1080,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1085,7 +1088,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1109,7 +1112,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1117,7 +1120,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1125,7 +1128,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1133,7 +1136,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1141,7 +1144,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1149,7 +1152,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1157,7 +1160,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1165,7 +1168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1173,7 +1176,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1181,7 +1184,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1189,7 +1192,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1197,7 +1200,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1205,7 +1208,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1213,7 +1216,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1237,7 +1240,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1245,7 +1248,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1253,7 +1256,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1261,7 +1264,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1269,7 +1272,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1277,7 +1280,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1285,7 +1288,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1293,7 +1296,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1301,7 +1304,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1309,7 +1312,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1317,7 +1320,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1325,7 +1328,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1333,7 +1336,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1341,7 +1344,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1349,7 +1352,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1357,7 +1360,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1365,7 +1368,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1373,7 +1376,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1381,7 +1384,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1389,7 +1392,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1397,7 +1400,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1405,7 +1408,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1413,7 +1416,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1421,7 +1424,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1429,7 +1432,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1437,7 +1440,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1445,7 +1448,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1453,7 +1456,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1461,7 +1464,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1469,7 +1472,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1477,7 +1480,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1485,7 +1488,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1493,7 +1496,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1501,7 +1504,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1509,7 +1512,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1517,7 +1520,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1525,7 +1528,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1533,7 +1536,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1541,7 +1544,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1549,7 +1552,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1557,7 +1560,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1565,7 +1568,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1589,7 +1592,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1597,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1605,7 +1608,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1613,7 +1616,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1621,7 +1624,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1629,7 +1632,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1637,7 +1640,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1645,7 +1648,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1653,7 +1656,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1661,7 +1664,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1669,7 +1672,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1677,7 +1680,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1685,7 +1688,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1693,7 +1696,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1701,7 +1704,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1709,7 +1712,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1717,7 +1720,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1725,7 +1728,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1733,7 +1736,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1741,7 +1744,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1749,7 +1752,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1757,7 +1760,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1765,7 +1768,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1773,7 +1776,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1781,7 +1784,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1789,7 +1792,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1797,7 +1800,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1805,7 +1808,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1813,7 +1816,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1821,7 +1824,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1829,7 +1832,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1837,7 +1840,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1845,7 +1848,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1853,7 +1856,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1861,7 +1864,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1869,7 +1872,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1877,7 +1880,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1885,7 +1888,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1893,7 +1896,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1901,7 +1904,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1909,7 +1912,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1917,7 +1920,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1925,7 +1928,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1933,7 +1936,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1941,7 +1944,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1949,7 +1952,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1957,7 +1960,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1965,7 +1968,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1973,7 +1976,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1981,7 +1984,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1989,7 +1992,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1997,7 +2000,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2005,7 +2008,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2013,7 +2016,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2021,7 +2024,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2029,7 +2032,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2037,7 +2040,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2045,7 +2048,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2053,7 +2056,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2061,7 +2064,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2069,7 +2072,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2077,7 +2080,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2085,7 +2088,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2093,7 +2096,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2101,7 +2104,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2109,7 +2112,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2117,7 +2120,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2125,7 +2128,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2133,7 +2136,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2141,7 +2144,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2149,7 +2152,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2157,7 +2160,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2165,7 +2168,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2173,7 +2176,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2181,7 +2184,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2189,7 +2192,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2197,7 +2200,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2205,7 +2208,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2213,7 +2216,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2221,7 +2224,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2229,7 +2232,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2237,7 +2240,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2245,7 +2248,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2253,7 +2256,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2261,7 +2264,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2269,7 +2272,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2277,7 +2280,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2285,7 +2288,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2293,7 +2296,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2301,7 +2304,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2309,7 +2312,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2317,7 +2320,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2325,7 +2328,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2333,7 +2336,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2357,7 +2360,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2365,7 +2368,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2373,7 +2376,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2381,7 +2384,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2389,7 +2392,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2397,7 +2400,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2405,7 +2408,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2413,7 +2416,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2421,7 +2424,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2429,7 +2432,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2437,7 +2440,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2445,7 +2448,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2453,7 +2456,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2461,7 +2464,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2469,7 +2472,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2477,7 +2480,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2485,7 +2488,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2493,7 +2496,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2501,7 +2504,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2509,7 +2512,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2517,7 +2520,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2525,7 +2528,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2533,7 +2536,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2541,7 +2544,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2549,7 +2552,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2557,7 +2560,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2565,7 +2568,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2573,7 +2576,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2581,7 +2584,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2589,7 +2592,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2597,7 +2600,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2605,7 +2608,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2613,7 +2616,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2621,7 +2624,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2629,7 +2632,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2637,7 +2640,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2645,7 +2648,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2653,7 +2656,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2661,7 +2664,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2669,7 +2672,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2677,7 +2680,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2685,7 +2688,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2693,7 +2696,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2701,7 +2704,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2709,7 +2712,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2717,7 +2720,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2725,7 +2728,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2733,7 +2736,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2741,7 +2744,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2749,7 +2752,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2757,7 +2760,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2765,7 +2768,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2773,7 +2776,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2781,7 +2784,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2789,7 +2792,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2797,7 +2800,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2805,7 +2808,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2813,7 +2816,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2821,7 +2824,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2829,7 +2832,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2837,7 +2840,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2845,7 +2848,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2853,7 +2856,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2861,7 +2864,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2869,7 +2872,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2877,7 +2880,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2885,7 +2888,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2893,7 +2896,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2901,7 +2904,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2909,7 +2912,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2917,7 +2920,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2925,7 +2928,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2933,7 +2936,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2941,7 +2944,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2949,7 +2952,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2957,7 +2960,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2965,7 +2968,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2973,7 +2976,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2981,7 +2984,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2989,7 +2992,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2997,7 +3000,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3005,7 +3008,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3013,7 +3016,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3021,7 +3024,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3029,7 +3032,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3037,7 +3040,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3045,7 +3048,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3053,7 +3056,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3061,7 +3064,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3069,7 +3072,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3077,7 +3080,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3085,7 +3088,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3093,7 +3096,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3101,7 +3104,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3109,7 +3112,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3117,7 +3120,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3125,7 +3128,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3133,7 +3136,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3141,7 +3144,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3149,7 +3152,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3157,7 +3160,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3165,7 +3168,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3173,7 +3176,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3181,7 +3184,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3189,7 +3192,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3197,7 +3200,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3205,7 +3208,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3213,7 +3216,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3221,7 +3224,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3229,7 +3232,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3237,7 +3240,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3245,7 +3248,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3253,7 +3256,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3261,7 +3264,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3269,7 +3272,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3277,7 +3280,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3285,7 +3288,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3293,7 +3296,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3301,7 +3304,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3309,7 +3312,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3317,7 +3320,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3325,7 +3328,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3333,7 +3336,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3341,7 +3344,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3349,7 +3352,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3357,7 +3360,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3381,7 +3384,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3389,7 +3392,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3397,7 +3400,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3405,7 +3408,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3413,7 +3416,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3421,7 +3424,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3429,7 +3432,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3437,7 +3440,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3477,7 +3480,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3485,7 +3488,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3493,7 +3496,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3501,7 +3504,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3509,7 +3512,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3517,7 +3520,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3525,7 +3528,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3533,7 +3536,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3541,7 +3544,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3549,7 +3552,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3557,7 +3560,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3565,7 +3568,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3573,7 +3576,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3581,7 +3584,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3589,7 +3592,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3597,7 +3600,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3605,7 +3608,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3613,7 +3616,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3621,7 +3624,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3629,7 +3632,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3637,7 +3640,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3645,7 +3648,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3653,7 +3656,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3661,7 +3664,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3669,7 +3672,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3677,7 +3680,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3685,7 +3688,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3693,7 +3696,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3701,7 +3704,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3709,7 +3712,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3717,7 +3720,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3725,7 +3728,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3733,7 +3736,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3741,7 +3744,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3749,7 +3752,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3757,7 +3760,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3765,7 +3768,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3773,7 +3776,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3781,7 +3784,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3789,7 +3792,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3797,7 +3800,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3805,7 +3808,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3813,7 +3816,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3821,7 +3824,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3829,7 +3832,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3837,7 +3840,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3845,7 +3848,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3853,7 +3856,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3861,7 +3864,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3869,335 +3872,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="B461" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="B465" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="B466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="B467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="B468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="B469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="B470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="B471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="B472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="B473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="B474" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="B475" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="1">
-        <v>474</v>
-      </c>
-      <c r="B476" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="12">
   <si>
     <t>Chords</t>
   </si>
@@ -22,16 +22,31 @@
     <t>rest</t>
   </si>
   <si>
-    <t>Bm</t>
+    <t>Gm</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Dm</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>Gb</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>F#</t>
-  </si>
-  <si>
-    <t>Em</t>
+    <t>Am</t>
   </si>
   <si>
     <t>A</t>
@@ -392,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -464,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -472,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -480,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -488,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -496,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -504,7 +519,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -512,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -520,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -528,7 +543,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -536,7 +551,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -544,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -552,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -560,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -568,7 +583,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -576,7 +591,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -584,7 +599,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -592,7 +607,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -600,7 +615,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -608,7 +623,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -616,7 +631,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -624,7 +639,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -632,7 +647,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -640,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -648,7 +663,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -656,7 +671,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -664,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -672,7 +687,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -680,7 +695,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -688,7 +703,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -696,7 +711,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -704,7 +719,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -712,7 +727,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -720,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -728,7 +743,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -736,7 +751,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -744,7 +759,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -752,7 +767,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -760,7 +775,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -768,7 +783,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -776,7 +791,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -784,7 +799,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -792,7 +807,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -800,7 +815,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -808,7 +823,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -816,7 +831,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -824,7 +839,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -832,7 +847,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -840,7 +855,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -848,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -856,7 +871,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -864,7 +879,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -872,7 +887,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -880,7 +895,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -888,7 +903,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -896,7 +911,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -904,7 +919,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -912,7 +927,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -920,7 +935,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -928,7 +943,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -936,7 +951,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -944,7 +959,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -952,7 +967,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -960,7 +975,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -968,7 +983,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -976,7 +991,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -984,7 +999,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -992,7 +1007,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1000,7 +1015,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1008,7 +1023,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1016,7 +1031,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1024,7 +1039,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1032,7 +1047,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1040,7 +1055,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1048,7 +1063,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1056,7 +1071,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1064,7 +1079,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1072,7 +1087,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1080,7 +1095,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1088,7 +1103,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1096,7 +1111,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1104,7 +1119,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1112,7 +1127,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1120,7 +1135,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1128,7 +1143,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1136,7 +1151,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1144,7 +1159,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1152,7 +1167,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1160,7 +1175,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1168,7 +1183,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1176,7 +1191,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1184,7 +1199,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1192,7 +1207,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1200,7 +1215,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1208,7 +1223,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1216,7 +1231,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1224,7 +1239,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1232,7 +1247,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1240,7 +1255,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1248,7 +1263,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1256,7 +1271,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1264,7 +1279,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1272,7 +1287,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1280,7 +1295,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1288,7 +1303,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1296,7 +1311,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1304,7 +1319,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1312,7 +1327,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1320,7 +1335,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1328,7 +1343,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1336,7 +1351,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1344,7 +1359,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1352,7 +1367,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1360,7 +1375,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1368,7 +1383,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1376,7 +1391,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1384,7 +1399,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1392,7 +1407,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1400,7 +1415,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1408,7 +1423,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1416,7 +1431,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1424,7 +1439,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1432,7 +1447,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1440,7 +1455,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1448,7 +1463,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1456,7 +1471,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1464,7 +1479,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1472,7 +1487,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1480,7 +1495,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1488,7 +1503,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1496,7 +1511,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1504,7 +1519,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1512,7 +1527,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1520,7 +1535,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1528,7 +1543,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1536,7 +1551,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1544,7 +1559,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1552,7 +1567,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1560,7 +1575,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1568,7 +1583,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1576,7 +1591,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1584,7 +1599,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1592,7 +1607,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1600,7 +1615,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1608,7 +1623,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1616,7 +1631,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1688,7 +1703,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1696,7 +1711,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1704,7 +1719,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1712,7 +1727,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1720,7 +1735,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1728,7 +1743,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1736,7 +1751,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1744,7 +1759,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1752,7 +1767,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1760,7 +1775,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1768,7 +1783,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1776,7 +1791,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1784,7 +1799,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1792,7 +1807,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1800,7 +1815,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1808,7 +1823,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1848,7 +1863,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1856,7 +1871,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1864,7 +1879,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1872,7 +1887,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1880,7 +1895,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1888,7 +1903,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1896,7 +1911,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1936,7 +1951,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1944,7 +1959,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1952,7 +1967,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1960,7 +1975,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1968,7 +1983,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1976,7 +1991,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1984,7 +1999,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1992,7 +2007,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2000,7 +2015,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2008,7 +2023,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2016,7 +2031,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2024,7 +2039,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2064,7 +2079,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2072,7 +2087,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2080,7 +2095,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2088,7 +2103,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2096,7 +2111,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2104,7 +2119,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2112,7 +2127,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2120,7 +2135,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2128,7 +2143,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2136,7 +2151,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2144,7 +2159,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2152,7 +2167,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2192,7 +2207,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2200,7 +2215,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2208,7 +2223,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2216,7 +2231,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2224,7 +2239,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2232,7 +2247,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2240,7 +2255,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2248,7 +2263,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2256,7 +2271,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2264,7 +2279,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2272,7 +2287,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2280,7 +2295,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2288,7 +2303,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2296,7 +2311,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2304,7 +2319,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2312,7 +2327,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2320,7 +2335,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2328,7 +2343,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2336,7 +2351,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2344,7 +2359,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2352,7 +2367,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2360,7 +2375,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2368,7 +2383,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2376,7 +2391,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2384,7 +2399,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2392,7 +2407,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2400,7 +2415,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2408,7 +2423,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2416,7 +2431,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2424,7 +2439,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2432,7 +2447,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2440,7 +2455,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2448,7 +2463,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2456,7 +2471,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2464,7 +2479,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2472,7 +2487,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2480,7 +2495,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2488,7 +2503,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2496,7 +2511,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2504,7 +2519,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2512,7 +2527,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2520,7 +2535,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2528,7 +2543,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2536,7 +2551,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2544,7 +2559,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2552,7 +2567,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2560,7 +2575,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2568,7 +2583,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2576,7 +2591,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2616,7 +2631,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2624,7 +2639,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2632,7 +2647,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2640,7 +2655,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2648,7 +2663,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2656,7 +2671,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2664,7 +2679,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2672,7 +2687,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2680,7 +2695,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2688,7 +2703,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2696,7 +2711,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2704,7 +2719,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2744,7 +2759,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2752,7 +2767,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2760,7 +2775,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2768,7 +2783,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2776,7 +2791,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2784,7 +2799,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2792,7 +2807,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2800,7 +2815,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2808,7 +2823,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2816,7 +2831,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2824,7 +2839,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2832,7 +2847,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2840,7 +2855,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2848,7 +2863,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2856,7 +2871,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2864,7 +2879,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2872,7 +2887,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2880,7 +2895,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2888,7 +2903,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2896,7 +2911,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2904,7 +2919,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2912,7 +2927,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2920,7 +2935,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2928,7 +2943,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2936,7 +2951,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2944,7 +2959,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2952,7 +2967,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2960,7 +2975,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2968,7 +2983,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2976,7 +2991,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2984,7 +2999,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2992,7 +3007,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3000,7 +3015,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3008,7 +3023,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3016,7 +3031,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3024,7 +3039,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3032,7 +3047,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3040,7 +3055,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3048,7 +3063,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3056,7 +3071,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3064,7 +3079,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3072,7 +3087,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3080,7 +3095,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3088,7 +3103,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3096,7 +3111,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3104,7 +3119,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3112,7 +3127,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3120,7 +3135,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3128,7 +3143,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3136,7 +3151,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3144,7 +3159,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3152,7 +3167,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3160,7 +3175,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3168,7 +3183,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3176,7 +3191,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3184,7 +3199,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3192,7 +3207,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3200,7 +3215,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3208,7 +3223,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3216,7 +3231,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3224,7 +3239,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3232,7 +3247,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3240,7 +3255,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3248,7 +3263,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3256,7 +3271,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3264,7 +3279,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3272,7 +3287,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3280,7 +3295,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3288,7 +3303,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3296,7 +3311,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3304,7 +3319,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3312,7 +3327,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3320,7 +3335,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3328,7 +3343,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3336,7 +3351,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3344,7 +3359,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3352,7 +3367,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3360,7 +3375,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3368,7 +3383,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3376,7 +3391,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3384,7 +3399,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3392,7 +3407,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3400,7 +3415,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3408,7 +3423,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3416,7 +3431,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3424,7 +3439,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3432,7 +3447,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3440,7 +3455,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3448,7 +3463,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3456,7 +3471,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3464,7 +3479,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3472,7 +3487,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3480,7 +3495,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3488,7 +3503,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3496,7 +3511,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3504,7 +3519,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3512,7 +3527,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3520,7 +3535,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3528,7 +3543,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3536,7 +3551,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3544,7 +3559,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3552,7 +3567,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3560,7 +3575,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3568,7 +3583,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3576,7 +3591,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3584,7 +3599,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3592,7 +3607,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3600,7 +3615,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3608,7 +3623,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3616,7 +3631,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3624,7 +3639,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3632,7 +3647,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3672,7 +3687,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3680,7 +3695,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3688,7 +3703,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3696,7 +3711,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3704,7 +3719,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3712,7 +3727,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3720,7 +3735,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3728,7 +3743,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3800,7 +3815,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3808,7 +3823,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3816,7 +3831,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3824,7 +3839,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3832,7 +3847,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3840,7 +3855,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3848,7 +3863,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3856,7 +3871,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3864,7 +3879,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3872,7 +3887,855 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -1,3 +1,108 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="6">
+  <si>
+    <t>Chords</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +385,2310 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B287"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m7</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E7</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E7</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E7</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E7</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m7</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m7</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>F#m</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#m</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>C#</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3228,6 +3228,1366 @@
         <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>F#m</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>F#m</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>F#m</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>F#m</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
         <is>
           <t>rest</t>
         </is>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>F#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>C#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>C#m7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>C#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>F#m</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>F#m7</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Dm</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -4588,6 +4588,4556 @@
         <v>421</v>
       </c>
       <c r="B423" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Eb</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Gb</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Gm</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Ebm</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
         <is>
           <t>rest</t>
         </is>

--- a/chords.xlsx
+++ b/chords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B878"/>
+  <dimension ref="A1:B867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>rest</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm7</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gb7</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gb7</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gb7</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gb7</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bm</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Gb</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Gb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Gb</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Ebm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm7</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm7</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Fm7</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Fm7</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>G7</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>G7</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>G7</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>G7</t>
         </is>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb7</t>
         </is>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Cm</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Abm</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm7</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Gm7</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Gm7</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -9029,117 +9029,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="inlineStr">
-        <is>
-          <t>Bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="inlineStr">
-        <is>
-          <t>rest</t>
-        </is>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="inlineStr">
-        <is>
-          <t>rest</t>
-        </is>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="inlineStr">
-        <is>
-          <t>rest</t>
-        </is>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="inlineStr">
-        <is>
-          <t>rest</t>
-        </is>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="inlineStr">
-        <is>
-          <t>rest</t>
+          <t>F</t>
         </is>
       </c>
     </row>
